--- a/operations/2nd_Order_COS/モード計算.xlsx
+++ b/operations/2nd_Order_COS/モード計算.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\origa\OneDrive - m.titech.ac.jp\05_simulation\Swarm_Sytem_Simulator\operations\2nd_Order_COS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mtitechacjp-my.sharepoint.com/personal/origane_y_aa_m_titech_ac_jp/Documents/05_simulation/Swarm_Sytem_Simulator/operations/2nd_Order_COS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{1EDE109B-DBA0-4EA5-8F12-1A47A66CF387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8B051C1D-54B2-4C5D-9E76-FF4E39F3719D}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{1EDE109B-DBA0-4EA5-8F12-1A47A66CF387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E71C5E41-3F0C-451D-91DD-77561ED9E297}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{38E991FF-D3D5-4D64-9379-A03B427AAEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FFT込みOmega_0条件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>kappa</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +63,91 @@
     <t>実測omega</t>
     <rPh sb="0" eb="2">
       <t>ジッソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観測T</t>
+    <rPh sb="0" eb="2">
+      <t>カンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観測omega</t>
+    <rPh sb="0" eb="2">
+      <t>カンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推定l</t>
+    <rPh sb="0" eb="2">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N判定</t>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Omega_0下限</t>
+    <rPh sb="7" eb="9">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Omega_0上限</t>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Omega_0設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N設定</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Omega_0判定</t>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m^2/s^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nの下限</t>
+    <rPh sb="2" eb="4">
+      <t>カゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,11 +201,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F8B1C9-7B4C-41AA-8228-67AA3418434E}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -446,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -468,13 +569,13 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -483,15 +584,15 @@
       </c>
       <c r="C6">
         <f>2*PI()/(2*C5)</f>
-        <v>0.31415926535897931</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="D6">
         <f>2*PI()/(2*D5)</f>
-        <v>0.62831853071795862</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:F6" si="0">2*PI()/(2*E5)</f>
-        <v>0.15707963267948966</v>
+        <v>0.31415926535897931</v>
       </c>
       <c r="F6" t="e">
         <f t="shared" si="0"/>
@@ -504,15 +605,15 @@
       </c>
       <c r="C7">
         <f>C6^2</f>
-        <v>9.8696044010893574E-2</v>
+        <v>0.61685027506808487</v>
       </c>
       <c r="D7">
         <f>D6^2</f>
-        <v>0.3947841760435743</v>
+        <v>0.27415567780803768</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:F7" si="1">E6^2</f>
-        <v>2.4674011002723394E-2</v>
+        <v>9.8696044010893574E-2</v>
       </c>
       <c r="F7" t="e">
         <f t="shared" si="1"/>
@@ -525,53 +626,88 @@
       </c>
       <c r="C8">
         <f>SQRT($C$2)*C6</f>
-        <v>3.1415926535897931</v>
+        <v>2.4836470664490253</v>
       </c>
       <c r="D8">
         <f>SQRT($C$2)*D6</f>
-        <v>6.2831853071795862</v>
+        <v>1.6557647109660167</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:F8" si="2">SQRT($C$2)*E6</f>
-        <v>1.5707963267948966</v>
+        <v>0.99345882657961015</v>
       </c>
       <c r="F8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f>2*PI()/C8</f>
+        <v>2.5298221281347035</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>2.52</v>
-      </c>
-      <c r="D10">
+      <c r="C12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D12">
         <v>2.99</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <f>SQRT($C$2)*PI()/C10</f>
-        <v>12.46663751424521</v>
-      </c>
-      <c r="D11">
-        <f>SQRT($C$2)*PI()/D10</f>
-        <v>10.506998841437435</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C12">
-        <f>C11/C5</f>
-        <v>1.2466637514245211</v>
-      </c>
-      <c r="D12">
-        <f>D11/D5</f>
-        <v>2.1013997682874868</v>
+      <c r="C13">
+        <f>SQRT($C$2)*PI()/C12</f>
+        <v>2.1364705947948601</v>
+      </c>
+      <c r="D13">
+        <f>SQRT($C$2)*PI()/D12</f>
+        <v>3.3226047711692646</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <f>C13/C5</f>
+        <v>0.53411764869871503</v>
+      </c>
+      <c r="D14">
+        <f>D13/D5</f>
+        <v>0.55376746186154413</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f>2*PI()/C17</f>
+        <v>1.3962634015954636</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <f>SQRT($C$2)*PI()/C18</f>
+        <v>7.1151247353788536</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +722,7 @@
   <dimension ref="A3:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -860,6 +996,116 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DDC43C-CB25-49FE-903D-4BBF674F3E09}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>IF(C5&gt;C4,"〇","×")</f>
+        <v>〇</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <f>2*SQRT(C2)*PI()</f>
+        <v>4.4428829381583661</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SQRT(C2)*PI()*C5/C3</f>
+        <v>1137.3780321685417</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>IF(AND(C7&lt;C9,C9&lt;C8),"〇","×")</f>
+        <v>〇</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -869,18 +1115,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1068,25 +1314,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC55DDB1-7226-42A1-BDB8-F595958CCD89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39611F6D-E44A-4ED6-9649-D3CE5A0B30A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6f87285-118d-4116-b608-b89d54c34e20"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39611F6D-E44A-4ED6-9649-D3CE5A0B30A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC55DDB1-7226-42A1-BDB8-F595958CCD89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f6f87285-118d-4116-b608-b89d54c34e20"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
